--- a/notes - something.pk.xlsx
+++ b/notes - something.pk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AAAps\something.pk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AApps\something.pk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>v 0.1</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>What visitors really want</t>
-  </si>
-  <si>
-    <t>Users may want to filter by cuisine</t>
   </si>
   <si>
     <t>MVP Features</t>
@@ -800,7 +797,7 @@
   <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,7 +813,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -824,58 +821,58 @@
         <v>1</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="17"/>
       <c r="D8" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D9" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -883,7 +880,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
@@ -891,7 +888,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -899,20 +896,18 @@
         <v>3</v>
       </c>
       <c r="D12" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D14" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
@@ -967,77 +962,77 @@
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">

--- a/notes - something.pk.xlsx
+++ b/notes - something.pk.xlsx
@@ -797,7 +797,7 @@
   <dimension ref="B1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/notes - something.pk.xlsx
+++ b/notes - something.pk.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AApps\something.pk\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10500" windowHeight="6450" activeTab="1"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Notes" sheetId="3" r:id="rId2"/>
     <sheet name="Banks" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,97 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>v 0.1</t>
   </si>
   <si>
-    <t>Every Bank has multiple card types, gold, silver, platinum etc. with specific discounts</t>
-  </si>
-  <si>
-    <t>Users will want to hide/show credit cards</t>
-  </si>
-  <si>
-    <t>Users will only want discounts in there own cities</t>
-  </si>
-  <si>
-    <t>Ground Reality</t>
-  </si>
-  <si>
-    <t>Google Ads</t>
-  </si>
-  <si>
-    <t>Banks may be interested in the numbers, which user sees what discount etc.</t>
-  </si>
-  <si>
-    <t>Restaurants may want to advertise, market their own discounts</t>
-  </si>
-  <si>
-    <t>Monetise</t>
-  </si>
-  <si>
-    <t>What visitors really want</t>
-  </si>
-  <si>
-    <t>MVP Features</t>
-  </si>
-  <si>
-    <t>log which users see what discount</t>
-  </si>
-  <si>
-    <t>Cards also have discounts on specific days, fridays, saturdays etc.</t>
-  </si>
-  <si>
-    <t>toggle Banks</t>
-  </si>
-  <si>
-    <t>toggle restaurants</t>
-  </si>
-  <si>
-    <t>Select Cuisine ?</t>
-  </si>
-  <si>
-    <t>Need to log metrics to market the website to advertisers</t>
-  </si>
-  <si>
-    <t>Check Pakistani advertising networks to find who will be interested</t>
-  </si>
-  <si>
-    <t>SPA - List of Restaurants and discounts</t>
-  </si>
-  <si>
-    <t>User Login with facebook to see the discount to capture user contact info?</t>
-  </si>
-  <si>
-    <t>Every discount offer has an expiry , e.g. 30-May-15</t>
-  </si>
-  <si>
-    <t>Save and Load Data from Excel File</t>
-  </si>
-  <si>
-    <t>Every restaurant has multiple locations that may offer discount</t>
-  </si>
-  <si>
-    <t>Randomize restaurant name starting point in the ABC…Z</t>
-  </si>
-  <si>
-    <t>There are specific terms and conditions for specific discount to a specif restaurant , in text form</t>
-  </si>
-  <si>
-    <t>Check scroll positions to see which discounts have been viewed</t>
-  </si>
-  <si>
-    <t>Check on Page time for each visitor</t>
-  </si>
-  <si>
-    <t>Principle: Develop , upload and make live , iterate</t>
-  </si>
-  <si>
-    <t>Discounts have their unique terminology
-Discounts have custome types, best to store in text format
-HBL has 6 card types</t>
-  </si>
-  <si>
     <t>Askari Bank</t>
   </si>
   <si>
@@ -160,12 +69,98 @@
   </si>
   <si>
     <t>United Bank Limited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose: </t>
+  </si>
+  <si>
+    <t>easily food ordering mechanism for 36 galas, 50 thaals per gala</t>
+  </si>
+  <si>
+    <t>Use Cases</t>
+  </si>
+  <si>
+    <t>add menu for the day</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>start stop food sessions In progress, (breakfast, lunch, dinner)</t>
+  </si>
+  <si>
+    <t>select gala to manage</t>
+  </si>
+  <si>
+    <t>add captains, assign galas to captains</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">user types: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>admin, kitchen supervisor, gala supervisor</t>
+    </r>
+  </si>
+  <si>
+    <t>Brain Storm</t>
+  </si>
+  <si>
+    <t>admin: dispatch order</t>
+  </si>
+  <si>
+    <t>gala: request order for item</t>
+  </si>
+  <si>
+    <t>admin: see all pending request orders</t>
+  </si>
+  <si>
+    <t>gala: see all pending requests</t>
+  </si>
+  <si>
+    <t>gala: confirm request order received</t>
+  </si>
+  <si>
+    <t>admin: see old the request order is pending</t>
+  </si>
+  <si>
+    <t>gala: return unused food???</t>
+  </si>
+  <si>
+    <t>app designed for 320px width, android, chrome browser</t>
+  </si>
+  <si>
+    <t>make the system so good that they are forced to use it even after Moharram</t>
+  </si>
+  <si>
+    <t>admin: create new day with new food menu</t>
+  </si>
+  <si>
+    <t>create and print list of galas and passwords, instead of using emails</t>
+  </si>
+  <si>
+    <t>set name with each gala</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -202,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -229,7 +224,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -297,7 +298,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -310,6 +310,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -371,7 +387,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -406,7 +422,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -583,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -794,143 +810,286 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:D19"/>
+  <dimension ref="B1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C20" sqref="C20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="4" max="4" width="68" customWidth="1"/>
-    <col min="5" max="5" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="16">
+        <v>2</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="16">
+        <v>3</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="16">
         <v>4</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="C7" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+    </row>
+    <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="16">
+        <v>5</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="16">
+        <v>7</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="16">
+        <v>8</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="29">
+        <v>9</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="16">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B2" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="17" t="s">
+      <c r="C13" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>11</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <v>12</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="17" t="s">
+      <c r="C16" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="16">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="17" t="s">
+      <c r="C17" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="29">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="17"/>
-      <c r="D8" s="17" t="s">
+      <c r="C18" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="16">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="17"/>
-      <c r="D13" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
-        <v>7</v>
-      </c>
+      <c r="C19" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="16"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
     </row>
   </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -946,103 +1105,103 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="18"/>
-    <col min="2" max="2" width="26.7109375" style="18" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="9.140625" style="18"/>
-    <col min="11" max="11" width="13.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="9.140625" style="17"/>
+    <col min="2" max="2" width="26.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="9.140625" style="17"/>
+    <col min="11" max="11" width="13.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" s="23" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
+    <row r="1" spans="2:4" s="22" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
-        <v>29</v>
+      <c r="B2" s="17" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="18" t="s">
-        <v>30</v>
+      <c r="B3" s="17" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
-        <v>31</v>
+      <c r="B4" s="17" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
-        <v>32</v>
+      <c r="B5" s="17" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
-        <v>33</v>
+      <c r="B6" s="17" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
-        <v>34</v>
+      <c r="B7" s="17" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
-        <v>35</v>
+      <c r="B8" s="17" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
-        <v>36</v>
+      <c r="B9" s="17" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>37</v>
+      <c r="B10" s="17" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>38</v>
+      <c r="B11" s="17" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>39</v>
+      <c r="B12" s="17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
-        <v>40</v>
+      <c r="B13" s="17" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
-        <v>41</v>
+      <c r="B14" s="17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="18" t="s">
-        <v>42</v>
+      <c r="B15" s="17" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>43</v>
+      <c r="B16" s="17" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
     </row>
     <row r="18" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="20"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/notes - something.pk.xlsx
+++ b/notes - something.pk.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
   <si>
     <t>v 0.1</t>
   </si>
@@ -71,90 +71,52 @@
     <t>United Bank Limited</t>
   </si>
   <si>
-    <t xml:space="preserve">Purpose: </t>
-  </si>
-  <si>
-    <t>easily food ordering mechanism for 36 galas, 50 thaals per gala</t>
-  </si>
-  <si>
     <t>Use Cases</t>
   </si>
   <si>
-    <t>add menu for the day</t>
-  </si>
-  <si>
     <t>S/N</t>
   </si>
   <si>
-    <t>start stop food sessions In progress, (breakfast, lunch, dinner)</t>
-  </si>
-  <si>
-    <t>select gala to manage</t>
-  </si>
-  <si>
-    <t>add captains, assign galas to captains</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">user types: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>admin, kitchen supervisor, gala supervisor</t>
-    </r>
-  </si>
-  <si>
-    <t>Brain Storm</t>
-  </si>
-  <si>
-    <t>admin: dispatch order</t>
-  </si>
-  <si>
-    <t>gala: request order for item</t>
-  </si>
-  <si>
-    <t>admin: see all pending request orders</t>
-  </si>
-  <si>
-    <t>gala: see all pending requests</t>
-  </si>
-  <si>
-    <t>gala: confirm request order received</t>
-  </si>
-  <si>
-    <t>admin: see old the request order is pending</t>
-  </si>
-  <si>
-    <t>gala: return unused food???</t>
-  </si>
-  <si>
-    <t>app designed for 320px width, android, chrome browser</t>
-  </si>
-  <si>
     <t>make the system so good that they are forced to use it even after Moharram</t>
   </si>
   <si>
-    <t>admin: create new day with new food menu</t>
-  </si>
-  <si>
-    <t>create and print list of galas and passwords, instead of using emails</t>
-  </si>
-  <si>
-    <t>set name with each gala</t>
+    <t>MVP for door quotes and manufacturing</t>
+  </si>
+  <si>
+    <t>APP:</t>
+  </si>
+  <si>
+    <t>Visitor work flow</t>
+  </si>
+  <si>
+    <t>select fire rating</t>
+  </si>
+  <si>
+    <t>specify size</t>
+  </si>
+  <si>
+    <t>add comments</t>
+  </si>
+  <si>
+    <t>generate comments</t>
+  </si>
+  <si>
+    <t>get quote</t>
+  </si>
+  <si>
+    <t>get email for a new quote</t>
+  </si>
+  <si>
+    <t>add special requirements</t>
+  </si>
+  <si>
+    <t>Input Company Name , Address, Email, Project Name:</t>
+  </si>
+  <si>
+    <t>approve quote in email</t>
+  </si>
+  <si>
+    <t>quote is automatically generated and sent to the client</t>
   </si>
 </sst>
 </file>
@@ -224,13 +186,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,21 +274,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,7 +561,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -810,10 +772,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I21"/>
+  <dimension ref="B1:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:G20"/>
+      <selection activeCell="C16" sqref="C16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,263 +786,283 @@
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="27" t="s">
+      <c r="E3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="I5" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="29"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="16">
         <v>3</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
       <c r="F6" s="26"/>
       <c r="G6" s="26"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="16">
         <v>4</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="I7" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="16">
         <v>5</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="I8" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="I9" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="16">
         <v>7</v>
       </c>
-      <c r="C10" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="16">
-        <v>8</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="29">
-        <v>9</v>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="31" t="s">
+        <v>17</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="16">
-        <v>10</v>
-      </c>
-      <c r="C13" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>2</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
-        <v>11</v>
-      </c>
-      <c r="C14" s="32" t="s">
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="16">
+        <v>3</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
-        <v>12</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="16">
-        <v>13</v>
-      </c>
-      <c r="C16" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="16">
-        <v>14</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
+        <v>5</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="29">
-        <v>15</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
+      <c r="B18" s="24">
+        <v>6</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="16">
-        <v>16</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
+        <v>7</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="16"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="16"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
+  <mergeCells count="25">
+    <mergeCell ref="I5:M5"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="I7:M7"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="I9:M9"/>
     <mergeCell ref="C14:G14"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C4:G4"/>
@@ -1089,6 +1071,18 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
